--- a/MakeMyTrip/resources/FlightData.xlsx
+++ b/MakeMyTrip/resources/FlightData.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krish\git\MakeMyTrip\MakeMyTrip\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A900AA5-EF0B-49DD-A328-21D0E9963C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF1AD2B4-C922-46A1-BC94-6C56CF0BE08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2883D891-2CA6-402B-8497-B413F0C093C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{7531D07A-9A81-4AC2-AB29-8F2FD9CC64B9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OneWay_1" sheetId="1" r:id="rId1"/>
+    <sheet name="OneWay_2" sheetId="2" r:id="rId2"/>
+    <sheet name="OneWay_3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,8 +35,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="26">
+  <si>
+    <t>Flight Name</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Vistara</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>20:25</t>
+  </si>
+  <si>
+    <t>07:40</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>₹ 7,962</t>
+  </si>
+  <si>
+    <t>AirAsia</t>
+  </si>
+  <si>
+    <t>07:10</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>22:05</t>
+  </si>
+  <si>
+    <t>₹ 6,001₹ 5,572</t>
+  </si>
+  <si>
+    <t>₹ 8,018</t>
+  </si>
+  <si>
+    <t>₹ 6,665</t>
+  </si>
+  <si>
+    <t>SpiceJet</t>
+  </si>
+  <si>
+    <t>11:15</t>
+  </si>
+  <si>
+    <t>07:20</t>
+  </si>
+  <si>
+    <t>17:35</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>19:45</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,13 +466,1383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4234CD82-8593-4BD2-9835-823B4ECC9E53}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BBECA3-FC1D-4463-888D-AB935C119491}">
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="E57" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="E58" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="E60" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="E97" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="E98" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="E99" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="E100" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="E101" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B7A891-609F-47F7-80CD-08B17F370064}">
+  <dimension ref="A1:E93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="E75" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="E76" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="E77" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="E78" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="E82" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="E84" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="E85" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="E86" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="E87" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="E88" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="E89" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="E90" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="E91" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="E92" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="E93" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429BCCED-23A5-4C55-B0F1-DDE6CEDDB79F}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.7109375"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="E35" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="E36" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>